--- a/medicine/Psychotrope/Stabilisation_tartrique/Stabilisation_tartrique.xlsx
+++ b/medicine/Psychotrope/Stabilisation_tartrique/Stabilisation_tartrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La stabilisation tartrique du vin est une des phases de la vinification.
 Le but de la stabilisation tartrique du vin est d'empêcher la formation de cristaux de tartre au sein de la bouteille qui peut avoir lieu lorsque la température du vin diminue.
@@ -514,7 +526,9 @@
           <t>Procédés physiques de stabilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les procédés physiques de stabilisation tartrique du vin sont:
 le traitement par le froid
@@ -547,13 +561,15 @@
           <t>Procédés chimiques de stabilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les méthodes chimiques de stabilisation tartrique du vin sont l'utilisation de:
 l'acide métatartrique
 les gommes de celluloses
 les mannoprotéines de levures issues des levures (lies)
-le polyaspartate de potassium[1]</t>
+le polyaspartate de potassium</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,9 @@
           <t>Phénomène</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">[réf. souhaitée]
 La solubilité du bitartrate de potassium contenu dans le vin diminue quand la température s'abaisse.
